--- a/4.xlsx
+++ b/4.xlsx
@@ -500,7 +500,7 @@
         <v>45311.61894675926</v>
       </c>
       <c r="H2" s="3">
-        <v>45337.90837962963</v>
+        <v>45340.56606481481</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>

--- a/4.xlsx
+++ b/4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Sno</t>
   </si>
@@ -61,13 +61,25 @@
     <t>https://www.virustotal.com/gui/ip-address/218.92.0.125/detection</t>
   </si>
   <si>
+    <t>https://www.virustotal.com/gui/ip-address/122.180.21.165/detection</t>
+  </si>
+  <si>
     <t>{'harmless': 61, 'malicious': 8, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
+    <t>India</t>
+  </si>
+  <si>
     <t>Chinanet</t>
+  </si>
+  <si>
+    <t>Bharti Airtel Ltd., Telemedia Services</t>
   </si>
 </sst>
 </file>
@@ -491,10 +503,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -503,7 +515,7 @@
         <v>45340.56606481481</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -513,6 +525,27 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45328.50989583333</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45340.6105787037</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
@@ -533,6 +566,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4.xlsx
+++ b/4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Sno</t>
   </si>
@@ -64,22 +64,34 @@
     <t>https://www.virustotal.com/gui/ip-address/122.180.21.165/detection</t>
   </si>
   <si>
+    <t>https://www.virustotal.com/gui/ip-address/85.104.3.240/detection</t>
+  </si>
+  <si>
     <t>{'harmless': 61, 'malicious': 8, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
+    <t>Turkey</t>
+  </si>
+  <si>
     <t>Chinanet</t>
   </si>
   <si>
     <t>Bharti Airtel Ltd., Telemedia Services</t>
+  </si>
+  <si>
+    <t>Turk Telekom</t>
   </si>
 </sst>
 </file>
@@ -503,10 +515,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -515,7 +527,7 @@
         <v>45340.56606481481</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -532,10 +544,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -544,7 +556,7 @@
         <v>45340.6105787037</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -553,6 +565,27 @@
       </c>
       <c r="B4" t="s">
         <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45306.97109953704</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45340.0480787037</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -567,6 +600,7 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4.xlsx
+++ b/4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Sno</t>
   </si>
@@ -67,6 +67,9 @@
     <t>https://www.virustotal.com/gui/ip-address/85.104.3.240/detection</t>
   </si>
   <si>
+    <t>https://www.virustotal.com/gui/ip-address/120.221.212.160/detection</t>
+  </si>
+  <si>
     <t>{'harmless': 61, 'malicious': 8, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>Turk Telekom</t>
+  </si>
+  <si>
+    <t>China Mobile Communications Group Co., Ltd.</t>
   </si>
 </sst>
 </file>
@@ -515,10 +521,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -527,7 +533,7 @@
         <v>45340.56606481481</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -556,7 +562,7 @@
         <v>45340.6105787037</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -573,10 +579,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3">
         <v>45306.97109953704</v>
@@ -585,7 +591,7 @@
         <v>45340.0480787037</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -594,6 +600,27 @@
       </c>
       <c r="B5" t="s">
         <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45328.57457175926</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45340.61069444445</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -601,6 +628,7 @@
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4.xlsx
+++ b/4.xlsx
@@ -14,34 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
-  <si>
-    <t>Sno</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>last_analysis_stats</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>whois_date</t>
-  </si>
-  <si>
-    <t>Last_Modification_Date</t>
-  </si>
-  <si>
-    <t>AS_Owner</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>218.92.0.125</t>
   </si>
@@ -107,16 +80,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -139,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -147,35 +112,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -472,163 +419,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" t="s">
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2">
+        <v>45311.61894675926</v>
+      </c>
+      <c r="H1" s="2">
+        <v>45340.65108796296</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45311.61894675926</v>
-      </c>
-      <c r="H2" s="3">
-        <v>45340.56606481481</v>
+      <c r="G2" s="2">
+        <v>45328.50989583333</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45340.6105787037</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3">
-        <v>45328.50989583333</v>
-      </c>
-      <c r="H3" s="3">
-        <v>45340.6105787037</v>
+        <v>14</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45306.97109953704</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45340.0480787037</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="3">
-        <v>45306.97109953704</v>
-      </c>
-      <c r="H4" s="3">
-        <v>45340.0480787037</v>
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45328.57457175926</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45340.61069444445</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45328.57457175926</v>
-      </c>
-      <c r="H5" s="3">
-        <v>45340.61069444445</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4.xlsx
+++ b/4.xlsx
@@ -1,20 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3448C1E-ED4D-4C0B-8F89-B0ADF9F4F15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Sno</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>last_analysis_stats</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>whois_date</t>
+  </si>
+  <si>
+    <t>Last_Modification_Date</t>
+  </si>
+  <si>
+    <t>AS_Owner</t>
+  </si>
   <si>
     <t>218.92.0.125</t>
   </si>
@@ -27,61 +60,24 @@
   <si>
     <t>120.221.212.160</t>
   </si>
-  <si>
-    <t>Malicious</t>
-  </si>
-  <si>
-    <t>https://www.virustotal.com/gui/ip-address/218.92.0.125/detection</t>
-  </si>
-  <si>
-    <t>https://www.virustotal.com/gui/ip-address/122.180.21.165/detection</t>
-  </si>
-  <si>
-    <t>https://www.virustotal.com/gui/ip-address/85.104.3.240/detection</t>
-  </si>
-  <si>
-    <t>https://www.virustotal.com/gui/ip-address/120.221.212.160/detection</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Chinanet</t>
-  </si>
-  <si>
-    <t>Bharti Airtel Ltd., Telemedia Services</t>
-  </si>
-  <si>
-    <t>Turk Telekom</t>
-  </si>
-  <si>
-    <t>China Mobile Communications Group Co., Ltd.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,17 +108,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -131,13 +145,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +197,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -209,6 +231,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -243,9 +266,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,136 +442,1481 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2">
-        <v>45311.61894675926</v>
-      </c>
-      <c r="H1" s="2">
-        <v>45340.65108796296</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45328.50989583333</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45340.6105787037</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45306.97109953704</v>
-      </c>
-      <c r="H3" s="2">
-        <v>45340.0480787037</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45328.57457175926</v>
-      </c>
-      <c r="H4" s="2">
-        <v>45340.61069444445</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D30" s="2"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D34" s="2"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D37" s="2"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D38" s="2"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D39" s="2"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D40" s="2"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D41" s="2"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D42" s="2"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D43" s="2"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D44" s="2"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D45" s="2"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D46" s="2"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D47" s="2"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D48" s="2"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D49" s="2"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D50" s="2"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D51" s="2"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D52" s="2"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D53" s="2"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D54" s="2"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D55" s="2"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D56" s="2"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D57" s="2"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D58" s="2"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D59" s="2"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D60" s="2"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D61" s="2"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D62" s="2"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D63" s="2"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D64" s="2"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D65" s="2"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D66" s="2"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D67" s="2"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D68" s="2"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D69" s="2"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D70" s="2"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D71" s="2"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D72" s="2"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D73" s="2"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D74" s="2"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D75" s="2"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D76" s="2"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D77" s="2"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D78" s="2"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D79" s="2"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D80" s="2"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D81" s="2"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D82" s="2"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D83" s="2"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D84" s="2"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D85" s="2"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D86" s="2"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D87" s="2"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D88" s="2"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D89" s="2"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D90" s="2"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D91" s="2"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D92" s="2"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D93" s="2"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D94" s="2"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D95" s="2"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D96" s="2"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D97" s="2"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D98" s="2"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D99" s="2"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D100" s="2"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D101" s="2"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D102" s="2"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D103" s="2"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D104" s="2"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D105" s="2"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D106" s="2"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D107" s="2"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D108" s="2"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D109" s="2"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D110" s="2"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D111" s="2"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D112" s="2"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D113" s="2"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D114" s="2"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D115" s="2"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D116" s="2"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D117" s="2"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D118" s="2"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D119" s="2"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D120" s="2"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D121" s="2"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D122" s="2"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D123" s="2"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D124" s="2"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D125" s="2"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D126" s="2"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D127" s="2"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D128" s="2"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D129" s="2"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D130" s="2"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+    </row>
+    <row r="131" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D131" s="2"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D132" s="2"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D133" s="2"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D134" s="2"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+    </row>
+    <row r="135" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D135" s="2"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D136" s="2"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D137" s="2"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D138" s="2"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D139" s="2"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D140" s="2"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D141" s="2"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D142" s="2"/>
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D143" s="2"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D144" s="2"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D145" s="2"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D146" s="2"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D147" s="2"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D148" s="2"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D149" s="2"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D150" s="2"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D151" s="2"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D152" s="2"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D153" s="2"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D154" s="2"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D155" s="2"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D156" s="2"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D157" s="2"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D158" s="2"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D159" s="2"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D160" s="2"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D161" s="2"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D162" s="2"/>
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D163" s="2"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D164" s="2"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D165" s="2"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D166" s="2"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D167" s="2"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D168" s="2"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D169" s="2"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D170" s="2"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D171" s="2"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D172" s="2"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D173" s="2"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D174" s="2"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D175" s="2"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D176" s="2"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D177" s="2"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D178" s="2"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D179" s="2"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D180" s="2"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D181" s="2"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D182" s="2"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D183" s="2"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D184" s="2"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D185" s="2"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D186" s="2"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D187" s="2"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+    </row>
+    <row r="188" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D188" s="2"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D189" s="2"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D190" s="2"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D191" s="2"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D192" s="2"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D193" s="2"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D194" s="2"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D195" s="2"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D196" s="2"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+    </row>
+    <row r="197" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D197" s="2"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+    </row>
+    <row r="198" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D198" s="2"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+    </row>
+    <row r="199" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D199" s="2"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D200" s="2"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D201" s="2"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+    </row>
+    <row r="202" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D202" s="2"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+    </row>
+    <row r="203" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D203" s="2"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+    </row>
+    <row r="204" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D204" s="2"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+    </row>
+    <row r="205" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D205" s="2"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+    </row>
+    <row r="206" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D206" s="2"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+    </row>
+    <row r="207" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D207" s="2"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+    </row>
+    <row r="208" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D208" s="2"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+    </row>
+    <row r="209" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D209" s="2"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+    </row>
+    <row r="210" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D210" s="2"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+    </row>
+    <row r="211" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D211" s="2"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+    </row>
+    <row r="212" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D212" s="2"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+    </row>
+    <row r="213" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D213" s="2"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
+    </row>
+    <row r="214" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D214" s="2"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+    </row>
+    <row r="215" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D215" s="2"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
+    </row>
+    <row r="216" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D216" s="2"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+    </row>
+    <row r="217" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D217" s="2"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+    </row>
+    <row r="218" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D218" s="2"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+    </row>
+    <row r="219" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D219" s="2"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+    </row>
+    <row r="220" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D220" s="2"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+    </row>
+    <row r="221" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D221" s="2"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+    </row>
+    <row r="222" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D222" s="2"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+    </row>
+    <row r="223" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D223" s="2"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+    </row>
+    <row r="224" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D224" s="2"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+    </row>
+    <row r="225" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D225" s="2"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+    </row>
+    <row r="226" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D226" s="2"/>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
+    </row>
+    <row r="227" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D227" s="2"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+    </row>
+    <row r="228" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D228" s="2"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+    </row>
+    <row r="229" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D229" s="2"/>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
+    </row>
+    <row r="230" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D230" s="2"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
+    </row>
+    <row r="231" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D231" s="2"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+    </row>
+    <row r="232" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D232" s="2"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
+    </row>
+    <row r="233" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D233" s="2"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
+    </row>
+    <row r="234" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D234" s="2"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+    </row>
+    <row r="235" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D235" s="2"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+    </row>
+    <row r="236" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D236" s="2"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+    </row>
+    <row r="237" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D237" s="2"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+    </row>
+    <row r="238" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D238" s="2"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+    </row>
+    <row r="239" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D239" s="2"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+    </row>
+    <row r="240" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D240" s="2"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+    </row>
+    <row r="241" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D241" s="2"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+    </row>
+    <row r="242" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D242" s="2"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+    </row>
+    <row r="243" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D243" s="2"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+    </row>
+    <row r="244" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D244" s="2"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+    </row>
+    <row r="245" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D245" s="2"/>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+    </row>
+    <row r="246" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D246" s="2"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+    </row>
+    <row r="247" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D247" s="2"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+    </row>
+    <row r="248" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D248" s="2"/>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+    </row>
+    <row r="249" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D249" s="2"/>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+    </row>
+    <row r="250" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D250" s="2"/>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+    </row>
+    <row r="251" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D251" s="2"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+    </row>
+    <row r="252" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D252" s="2"/>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+    </row>
+    <row r="253" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D253" s="2"/>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+    </row>
+    <row r="254" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D254" s="2"/>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
+    </row>
+    <row r="255" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D255" s="2"/>
+      <c r="G255" s="3"/>
+      <c r="H255" s="3"/>
+    </row>
+    <row r="256" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D256" s="2"/>
+      <c r="G256" s="3"/>
+      <c r="H256" s="3"/>
+    </row>
+    <row r="257" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D257" s="2"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
+    </row>
+    <row r="258" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D258" s="2"/>
+      <c r="G258" s="3"/>
+      <c r="H258" s="3"/>
+    </row>
+    <row r="259" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D259" s="2"/>
+      <c r="G259" s="3"/>
+      <c r="H259" s="3"/>
+    </row>
+    <row r="260" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D260" s="2"/>
+      <c r="G260" s="3"/>
+      <c r="H260" s="3"/>
+    </row>
+    <row r="261" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D261" s="2"/>
+      <c r="G261" s="3"/>
+      <c r="H261" s="3"/>
+    </row>
+    <row r="262" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D262" s="2"/>
+      <c r="G262" s="3"/>
+      <c r="H262" s="3"/>
+    </row>
+    <row r="263" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D263" s="2"/>
+      <c r="G263" s="3"/>
+      <c r="H263" s="3"/>
+    </row>
+    <row r="264" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D264" s="2"/>
+      <c r="G264" s="3"/>
+      <c r="H264" s="3"/>
+    </row>
+    <row r="265" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D265" s="2"/>
+      <c r="G265" s="3"/>
+      <c r="H265" s="3"/>
+    </row>
+    <row r="266" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D266" s="2"/>
+      <c r="G266" s="3"/>
+      <c r="H266" s="3"/>
+    </row>
+    <row r="267" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D267" s="2"/>
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
+    </row>
+    <row r="268" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D268" s="2"/>
+      <c r="G268" s="3"/>
+      <c r="H268" s="3"/>
+    </row>
+    <row r="269" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D269" s="2"/>
+      <c r="G269" s="3"/>
+      <c r="H269" s="3"/>
+    </row>
+    <row r="270" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D270" s="2"/>
+      <c r="G270" s="3"/>
+      <c r="H270" s="3"/>
+    </row>
+    <row r="271" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D271" s="2"/>
+      <c r="G271" s="3"/>
+      <c r="H271" s="3"/>
+    </row>
+    <row r="272" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D272" s="2"/>
+      <c r="G272" s="3"/>
+      <c r="H272" s="3"/>
+    </row>
+    <row r="273" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D273" s="2"/>
+      <c r="G273" s="3"/>
+      <c r="H273" s="3"/>
+    </row>
+    <row r="274" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D274" s="2"/>
+      <c r="G274" s="3"/>
+      <c r="H274" s="3"/>
+    </row>
+    <row r="275" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D275" s="2"/>
+      <c r="G275" s="3"/>
+      <c r="H275" s="3"/>
+    </row>
+    <row r="276" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D276" s="2"/>
+      <c r="G276" s="3"/>
+      <c r="H276" s="3"/>
+    </row>
+    <row r="277" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D277" s="2"/>
+      <c r="G277" s="3"/>
+      <c r="H277" s="3"/>
+    </row>
+    <row r="278" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D278" s="2"/>
+      <c r="G278" s="3"/>
+      <c r="H278" s="3"/>
+    </row>
+    <row r="279" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D279" s="2"/>
+      <c r="G279" s="3"/>
+      <c r="H279" s="3"/>
+    </row>
+    <row r="280" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D280" s="2"/>
+      <c r="G280" s="3"/>
+      <c r="H280" s="3"/>
+    </row>
+    <row r="281" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D281" s="2"/>
+      <c r="G281" s="3"/>
+      <c r="H281" s="3"/>
+    </row>
+    <row r="282" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D282" s="2"/>
+      <c r="G282" s="3"/>
+      <c r="H282" s="3"/>
+    </row>
+    <row r="283" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D283" s="2"/>
+      <c r="G283" s="3"/>
+      <c r="H283" s="3"/>
+    </row>
+    <row r="284" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D284" s="2"/>
+      <c r="G284" s="3"/>
+      <c r="H284" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/4.xlsx
+++ b/4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Sno</t>
   </si>
@@ -61,13 +61,25 @@
     <t>https://www.virustotal.com/gui/ip-address/218.92.0.125/detection</t>
   </si>
   <si>
+    <t>https://www.virustotal.com/gui/ip-address/122.180.21.165/detection</t>
+  </si>
+  <si>
     <t>{'harmless': 61, 'malicious': 8, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
+    <t>India</t>
+  </si>
+  <si>
     <t>Chinanet</t>
+  </si>
+  <si>
+    <t>Bharti Airtel Ltd., Telemedia Services</t>
   </si>
 </sst>
 </file>
@@ -491,10 +503,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -503,7 +515,7 @@
         <v>45340.73356481481</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -513,6 +525,27 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45328.50989583333</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45340.69359953704</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
@@ -533,6 +566,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4.xlsx
+++ b/4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Sno</t>
   </si>
@@ -64,22 +64,34 @@
     <t>https://www.virustotal.com/gui/ip-address/122.180.21.165/detection</t>
   </si>
   <si>
+    <t>https://www.virustotal.com/gui/ip-address/85.104.3.240/detection</t>
+  </si>
+  <si>
     <t>{'harmless': 61, 'malicious': 8, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
+    <t>Turkey</t>
+  </si>
+  <si>
     <t>Chinanet</t>
   </si>
   <si>
     <t>Bharti Airtel Ltd., Telemedia Services</t>
+  </si>
+  <si>
+    <t>Turk Telekom</t>
   </si>
 </sst>
 </file>
@@ -503,10 +515,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -515,7 +527,7 @@
         <v>45340.73356481481</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -532,10 +544,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -544,7 +556,7 @@
         <v>45340.69359953704</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -553,6 +565,27 @@
       </c>
       <c r="B4" t="s">
         <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45306.97109953704</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45340.0480787037</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -567,6 +600,7 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4.xlsx
+++ b/4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Sno</t>
   </si>
@@ -67,6 +67,9 @@
     <t>https://www.virustotal.com/gui/ip-address/85.104.3.240/detection</t>
   </si>
   <si>
+    <t>https://www.virustotal.com/gui/ip-address/120.221.212.160/detection</t>
+  </si>
+  <si>
     <t>{'harmless': 61, 'malicious': 8, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>Turk Telekom</t>
+  </si>
+  <si>
+    <t>China Mobile Communications Group Co., Ltd.</t>
   </si>
 </sst>
 </file>
@@ -515,10 +521,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -527,7 +533,7 @@
         <v>45340.73356481481</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -556,7 +562,7 @@
         <v>45340.69359953704</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -573,10 +579,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3">
         <v>45306.97109953704</v>
@@ -585,7 +591,7 @@
         <v>45340.0480787037</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -594,6 +600,27 @@
       </c>
       <c r="B5" t="s">
         <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45328.57457175926</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45340.69390046296</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -601,6 +628,7 @@
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4.xlsx
+++ b/4.xlsx
@@ -617,7 +617,7 @@
         <v>45328.57457175926</v>
       </c>
       <c r="H5" s="3">
-        <v>45340.69390046296</v>
+        <v>45340.77914351852</v>
       </c>
       <c r="I5" t="s">
         <v>27</v>

--- a/4.xlsx
+++ b/4.xlsx
@@ -530,7 +530,7 @@
         <v>45311.61894675926</v>
       </c>
       <c r="H2" s="3">
-        <v>45340.73356481481</v>
+        <v>45341.32113425926</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
